--- a/biology/Zoologie/Extinctions/Extinctions.xlsx
+++ b/biology/Zoologie/Extinctions/Extinctions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Extinctions (ou Sauvés de l'extinction) est une série documentaire créée par Frédéric Lepage et diffusée à partir du 23 juillet 2010 sur France 5.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette série est consacrée aux espèces animales en voie de disparition. Chaque épisode met la lumière sur une espèce animale menacée et suit de près les travaux mené par des scientifiques.  
 </t>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,7 +584,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Auteur : Frédéric Lepage
 Réalisateur : Jean-Marie Cornuel, Mauricio Dias, Isabelle Han, Guillaume Lévis
